--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ccl12-Ccr5.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ccl12-Ccr5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -77,6 +77,9 @@
   </si>
   <si>
     <t>Inflammatory-Mac</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
   </si>
   <si>
     <t>Neutrophils</t>
@@ -452,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,13 +528,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -540,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>29.48083233333334</v>
+        <v>42.70362466666668</v>
       </c>
       <c r="H2">
-        <v>88.442497</v>
+        <v>128.110874</v>
       </c>
       <c r="I2">
-        <v>0.3670116098006381</v>
+        <v>0.510021191154308</v>
       </c>
       <c r="J2">
-        <v>0.3670116098006381</v>
+        <v>0.5102913077099245</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M2">
-        <v>0.320495</v>
+        <v>0.1742985</v>
       </c>
       <c r="N2">
-        <v>0.6409899999999999</v>
+        <v>0.348597</v>
       </c>
       <c r="O2">
-        <v>0.002940116641429889</v>
+        <v>0.001359266120265145</v>
       </c>
       <c r="P2">
-        <v>0.001962000597822644</v>
+        <v>0.0009069429547068531</v>
       </c>
       <c r="Q2">
-        <v>9.448459358671666</v>
+        <v>7.443177723963002</v>
       </c>
       <c r="R2">
-        <v>56.69075615203</v>
+        <v>44.65906634377801</v>
       </c>
       <c r="S2">
-        <v>0.001079056941572829</v>
+        <v>0.000693254525753324</v>
       </c>
       <c r="T2">
-        <v>0.0007200769978367027</v>
+        <v>0.0004628051063756628</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,13 +590,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -602,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>29.48083233333334</v>
+        <v>42.70362466666668</v>
       </c>
       <c r="H3">
-        <v>88.442497</v>
+        <v>128.110874</v>
       </c>
       <c r="I3">
-        <v>0.3670116098006381</v>
+        <v>0.510021191154308</v>
       </c>
       <c r="J3">
-        <v>0.3670116098006381</v>
+        <v>0.5102913077099245</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -626,22 +629,22 @@
         <v>0.034127</v>
       </c>
       <c r="O3">
-        <v>0.0001043566572771055</v>
+        <v>8.871308872669319E-05</v>
       </c>
       <c r="P3">
-        <v>0.0001044590311890878</v>
+        <v>8.878803379053972E-05</v>
       </c>
       <c r="Q3">
-        <v>0.3353641216798889</v>
+        <v>0.4857821996664445</v>
       </c>
       <c r="R3">
-        <v>3.018277095119</v>
+        <v>4.372039796998001</v>
       </c>
       <c r="S3">
-        <v>3.830010478068398E-05</v>
+        <v>4.524555518336587E-05</v>
       </c>
       <c r="T3">
-        <v>3.833767719492216E-05</v>
+        <v>4.530776187196748E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,10 +652,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>20</v>
@@ -664,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>29.48083233333334</v>
+        <v>42.70362466666668</v>
       </c>
       <c r="H4">
-        <v>88.442497</v>
+        <v>128.110874</v>
       </c>
       <c r="I4">
-        <v>0.3670116098006381</v>
+        <v>0.510021191154308</v>
       </c>
       <c r="J4">
-        <v>0.3670116098006381</v>
+        <v>0.5102913077099245</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>48.78764200000001</v>
+        <v>79.77230433333334</v>
       </c>
       <c r="N4">
-        <v>146.362926</v>
+        <v>239.316913</v>
       </c>
       <c r="O4">
-        <v>0.4475619218406646</v>
+        <v>0.6221039803313305</v>
       </c>
       <c r="P4">
-        <v>0.4480009802197716</v>
+        <v>0.6226295355024366</v>
       </c>
       <c r="Q4">
-        <v>1438.300293740692</v>
+        <v>3406.566543045775</v>
       </c>
       <c r="R4">
-        <v>12944.70264366622</v>
+        <v>30659.09888741197</v>
       </c>
       <c r="S4">
-        <v>0.1642604214202097</v>
+        <v>0.3172862130704214</v>
       </c>
       <c r="T4">
-        <v>0.1644215609427222</v>
+        <v>0.3177224398903613</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,10 +714,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>21</v>
@@ -726,46 +729,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>29.48083233333334</v>
+        <v>42.70362466666668</v>
       </c>
       <c r="H5">
-        <v>88.442497</v>
+        <v>128.110874</v>
       </c>
       <c r="I5">
-        <v>0.3670116098006381</v>
+        <v>0.510021191154308</v>
       </c>
       <c r="J5">
-        <v>0.3670116098006381</v>
+        <v>0.5102913077099245</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="M5">
-        <v>0.271596</v>
+        <v>0.150414</v>
       </c>
       <c r="N5">
-        <v>0.8147880000000001</v>
+        <v>0.300828</v>
       </c>
       <c r="O5">
-        <v>0.002491533157602434</v>
+        <v>0.001173002947320611</v>
       </c>
       <c r="P5">
-        <v>0.00249397735237479</v>
+        <v>0.0007826626023131387</v>
       </c>
       <c r="Q5">
-        <v>8.006876138404001</v>
+        <v>6.423223000612001</v>
       </c>
       <c r="R5">
-        <v>72.06188524563601</v>
+        <v>38.53933800367201</v>
       </c>
       <c r="S5">
-        <v>0.0009144215950433363</v>
+        <v>0.000598256360419972</v>
       </c>
       <c r="T5">
-        <v>0.0009153186429014049</v>
+        <v>0.0003993859228300241</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,10 +776,10 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>22</v>
@@ -788,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>29.48083233333334</v>
+        <v>42.70362466666668</v>
       </c>
       <c r="H6">
-        <v>88.442497</v>
+        <v>128.110874</v>
       </c>
       <c r="I6">
-        <v>0.3670116098006381</v>
+        <v>0.510021191154308</v>
       </c>
       <c r="J6">
-        <v>0.3670116098006381</v>
+        <v>0.5102913077099245</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,90 +809,90 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>59.61647133333334</v>
+        <v>11.020322</v>
       </c>
       <c r="N6">
-        <v>178.849414</v>
+        <v>33.060966</v>
       </c>
       <c r="O6">
-        <v>0.546902071703026</v>
+        <v>0.08594193483600045</v>
       </c>
       <c r="P6">
-        <v>0.5474385827988417</v>
+        <v>0.08601453882134043</v>
       </c>
       <c r="Q6">
-        <v>1757.543195682974</v>
+        <v>470.6076943938095</v>
       </c>
       <c r="R6">
-        <v>15817.88876114676</v>
+        <v>4235.469249544285</v>
       </c>
       <c r="S6">
-        <v>0.2007194097390315</v>
+        <v>0.04383220797516287</v>
       </c>
       <c r="T6">
-        <v>0.2009163155399828</v>
+        <v>0.04389247149720787</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.2401406666666667</v>
+        <v>42.70362466666668</v>
       </c>
       <c r="H7">
-        <v>0.720422</v>
+        <v>128.110874</v>
       </c>
       <c r="I7">
-        <v>0.0029895496726624</v>
+        <v>0.510021191154308</v>
       </c>
       <c r="J7">
-        <v>0.0029895496726624</v>
+        <v>0.5102913077099245</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.320495</v>
+        <v>37.10114233333334</v>
       </c>
       <c r="N7">
-        <v>0.6409899999999999</v>
+        <v>111.303427</v>
       </c>
       <c r="O7">
-        <v>0.002940116641429889</v>
+        <v>0.2893331026763565</v>
       </c>
       <c r="P7">
-        <v>0.001962000597822644</v>
+        <v>0.2895775320854125</v>
       </c>
       <c r="Q7">
-        <v>0.07696388296333333</v>
+        <v>1584.353256907245</v>
       </c>
       <c r="R7">
-        <v>0.46178329778</v>
+        <v>14259.1793121652</v>
       </c>
       <c r="S7">
-        <v>8.789624742975997E-06</v>
+        <v>0.147566013667367</v>
       </c>
       <c r="T7">
-        <v>5.865498244984117E-06</v>
+        <v>0.1477688975312778</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>26</v>
@@ -909,49 +912,49 @@
         <v>1</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G8">
-        <v>0.2401406666666667</v>
+        <v>0.132963</v>
       </c>
       <c r="H8">
-        <v>0.720422</v>
+        <v>0.265926</v>
       </c>
       <c r="I8">
-        <v>0.0029895496726624</v>
+        <v>0.001588013855235666</v>
       </c>
       <c r="J8">
-        <v>0.0029895496726624</v>
+        <v>0.001059236597621443</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M8">
-        <v>0.01137566666666667</v>
+        <v>0.1742985</v>
       </c>
       <c r="N8">
-        <v>0.034127</v>
+        <v>0.348597</v>
       </c>
       <c r="O8">
-        <v>0.0001043566572771055</v>
+        <v>0.001359266120265145</v>
       </c>
       <c r="P8">
-        <v>0.0001044590311890878</v>
+        <v>0.0009069429547068531</v>
       </c>
       <c r="Q8">
-        <v>0.002731760177111111</v>
+        <v>0.0231752514555</v>
       </c>
       <c r="R8">
-        <v>0.024585841594</v>
+        <v>0.092701005822</v>
       </c>
       <c r="S8">
-        <v>3.119794106029131E-07</v>
+        <v>2.158533431933479E-06</v>
       </c>
       <c r="T8">
-        <v>3.122854624979688E-07</v>
+        <v>9.606671695804253E-07</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9">
+        <v>0.5</v>
+      </c>
+      <c r="G9">
+        <v>0.132963</v>
+      </c>
+      <c r="H9">
+        <v>0.265926</v>
+      </c>
+      <c r="I9">
+        <v>0.001588013855235666</v>
+      </c>
+      <c r="J9">
+        <v>0.001059236597621443</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G9">
-        <v>0.2401406666666667</v>
-      </c>
-      <c r="H9">
-        <v>0.720422</v>
-      </c>
-      <c r="I9">
-        <v>0.0029895496726624</v>
-      </c>
-      <c r="J9">
-        <v>0.0029895496726624</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
       <c r="M9">
-        <v>48.78764200000001</v>
+        <v>0.01137566666666667</v>
       </c>
       <c r="N9">
-        <v>146.362926</v>
+        <v>0.034127</v>
       </c>
       <c r="O9">
-        <v>0.4475619218406646</v>
+        <v>8.871308872669319E-05</v>
       </c>
       <c r="P9">
-        <v>0.4480009802197716</v>
+        <v>8.878803379053972E-05</v>
       </c>
       <c r="Q9">
-        <v>11.71589687497467</v>
+        <v>0.001512542767</v>
       </c>
       <c r="R9">
-        <v>105.443071874772</v>
+        <v>0.009075256601999999</v>
       </c>
       <c r="S9">
-        <v>0.001338008596934913</v>
+        <v>1.408776140387398E-07</v>
       </c>
       <c r="T9">
-        <v>0.001339321183768453</v>
+        <v>9.4047534821789E-08</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G10">
-        <v>0.2401406666666667</v>
+        <v>0.132963</v>
       </c>
       <c r="H10">
-        <v>0.720422</v>
+        <v>0.265926</v>
       </c>
       <c r="I10">
-        <v>0.0029895496726624</v>
+        <v>0.001588013855235666</v>
       </c>
       <c r="J10">
-        <v>0.0029895496726624</v>
+        <v>0.001059236597621443</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.271596</v>
+        <v>79.77230433333334</v>
       </c>
       <c r="N10">
-        <v>0.8147880000000001</v>
+        <v>239.316913</v>
       </c>
       <c r="O10">
-        <v>0.002491533157602434</v>
+        <v>0.6221039803313305</v>
       </c>
       <c r="P10">
-        <v>0.00249397735237479</v>
+        <v>0.6226295355024366</v>
       </c>
       <c r="Q10">
-        <v>0.06522124450400001</v>
+        <v>10.606764901073</v>
       </c>
       <c r="R10">
-        <v>0.5869912005360001</v>
+        <v>63.640589406438</v>
       </c>
       <c r="S10">
-        <v>7.448562135737872E-06</v>
+        <v>0.0009879097401634092</v>
       </c>
       <c r="T10">
-        <v>7.455869177419493E-06</v>
+        <v>0.0006595119907642203</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,185 +1086,185 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G11">
-        <v>0.2401406666666667</v>
+        <v>0.132963</v>
       </c>
       <c r="H11">
-        <v>0.720422</v>
+        <v>0.265926</v>
       </c>
       <c r="I11">
-        <v>0.0029895496726624</v>
+        <v>0.001588013855235666</v>
       </c>
       <c r="J11">
-        <v>0.0029895496726624</v>
+        <v>0.001059236597621443</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M11">
-        <v>59.61647133333334</v>
+        <v>0.150414</v>
       </c>
       <c r="N11">
-        <v>178.849414</v>
+        <v>0.300828</v>
       </c>
       <c r="O11">
-        <v>0.546902071703026</v>
+        <v>0.001173002947320611</v>
       </c>
       <c r="P11">
-        <v>0.5474385827988417</v>
+        <v>0.0007826626023131387</v>
       </c>
       <c r="Q11">
-        <v>14.31633917030089</v>
+        <v>0.019999496682</v>
       </c>
       <c r="R11">
-        <v>128.847052532708</v>
+        <v>0.079997986728</v>
       </c>
       <c r="S11">
-        <v>0.001634990909438169</v>
+        <v>1.862744932577402E-06</v>
       </c>
       <c r="T11">
-        <v>0.001636594836009045</v>
+        <v>8.290248719597134E-07</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
         <v>22</v>
       </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>25</v>
-      </c>
       <c r="E12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G12">
-        <v>50.60572933333333</v>
+        <v>0.132963</v>
       </c>
       <c r="H12">
-        <v>151.817188</v>
+        <v>0.265926</v>
       </c>
       <c r="I12">
-        <v>0.6299988405266995</v>
+        <v>0.001588013855235666</v>
       </c>
       <c r="J12">
-        <v>0.6299988405266996</v>
+        <v>0.001059236597621443</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.320495</v>
+        <v>11.020322</v>
       </c>
       <c r="N12">
-        <v>0.6409899999999999</v>
+        <v>33.060966</v>
       </c>
       <c r="O12">
-        <v>0.002940116641429889</v>
+        <v>0.08594193483600045</v>
       </c>
       <c r="P12">
-        <v>0.001962000597822644</v>
+        <v>0.08601453882134043</v>
       </c>
       <c r="Q12">
-        <v>16.21888322268666</v>
+        <v>1.465295074086</v>
       </c>
       <c r="R12">
-        <v>97.31329933611998</v>
+        <v>8.791770444516001</v>
       </c>
       <c r="S12">
-        <v>0.001852270075114084</v>
+        <v>0.0001364769832653295</v>
       </c>
       <c r="T12">
-        <v>0.001236058101740957</v>
+        <v>9.110974744709415E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>26</v>
-      </c>
       <c r="E13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G13">
-        <v>50.60572933333333</v>
+        <v>0.132963</v>
       </c>
       <c r="H13">
-        <v>151.817188</v>
+        <v>0.265926</v>
       </c>
       <c r="I13">
-        <v>0.6299988405266995</v>
+        <v>0.001588013855235666</v>
       </c>
       <c r="J13">
-        <v>0.6299988405266996</v>
+        <v>0.001059236597621443</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.01137566666666667</v>
+        <v>37.10114233333334</v>
       </c>
       <c r="N13">
-        <v>0.034127</v>
+        <v>111.303427</v>
       </c>
       <c r="O13">
-        <v>0.0001043566572771055</v>
+        <v>0.2893331026763565</v>
       </c>
       <c r="P13">
-        <v>0.0001044590311890878</v>
+        <v>0.2895775320854125</v>
       </c>
       <c r="Q13">
-        <v>0.5756739083195554</v>
+        <v>4.933079188067</v>
       </c>
       <c r="R13">
-        <v>5.181065174875999</v>
+        <v>29.598475128402</v>
       </c>
       <c r="S13">
-        <v>6.574457308581864E-05</v>
+        <v>0.0004594649758283778</v>
       </c>
       <c r="T13">
-        <v>6.580906853166765E-05</v>
+        <v>0.0003067311198337665</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,13 +1272,13 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1284,46 +1287,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>50.60572933333333</v>
+        <v>8.925701999999999</v>
       </c>
       <c r="H14">
-        <v>151.817188</v>
+        <v>26.777106</v>
       </c>
       <c r="I14">
-        <v>0.6299988405266995</v>
+        <v>0.1066021257320059</v>
       </c>
       <c r="J14">
-        <v>0.6299988405266996</v>
+        <v>0.1066585841684857</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M14">
-        <v>48.78764200000001</v>
+        <v>0.1742985</v>
       </c>
       <c r="N14">
-        <v>146.362926</v>
+        <v>0.348597</v>
       </c>
       <c r="O14">
-        <v>0.4475619218406646</v>
+        <v>0.001359266120265145</v>
       </c>
       <c r="P14">
-        <v>0.4480009802197716</v>
+        <v>0.0009069429547068531</v>
       </c>
       <c r="Q14">
-        <v>2468.934205863565</v>
+        <v>1.555736470047</v>
       </c>
       <c r="R14">
-        <v>22220.40785277209</v>
+        <v>9.334418820282</v>
       </c>
       <c r="S14">
-        <v>0.28196349182352</v>
+        <v>0.0001449006578557608</v>
       </c>
       <c r="T14">
-        <v>0.282240098093281</v>
+        <v>9.673325147061597E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,13 +1334,13 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1346,46 +1349,46 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>50.60572933333333</v>
+        <v>8.925701999999999</v>
       </c>
       <c r="H15">
-        <v>151.817188</v>
+        <v>26.777106</v>
       </c>
       <c r="I15">
-        <v>0.6299988405266995</v>
+        <v>0.1066021257320059</v>
       </c>
       <c r="J15">
-        <v>0.6299988405266996</v>
+        <v>0.1066585841684857</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L15">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M15">
-        <v>0.271596</v>
+        <v>0.01137566666666667</v>
       </c>
       <c r="N15">
-        <v>0.8147880000000001</v>
+        <v>0.034127</v>
       </c>
       <c r="O15">
-        <v>0.002491533157602434</v>
+        <v>8.871308872669319E-05</v>
       </c>
       <c r="P15">
-        <v>0.00249397735237479</v>
+        <v>8.878803379053972E-05</v>
       </c>
       <c r="Q15">
-        <v>13.744313664016</v>
+        <v>0.101535810718</v>
       </c>
       <c r="R15">
-        <v>123.698822976144</v>
+        <v>0.913822296462</v>
       </c>
       <c r="S15">
-        <v>0.00156966300042336</v>
+        <v>9.457003838517541E-06</v>
       </c>
       <c r="T15">
-        <v>0.001571202840295966</v>
+        <v>9.47000597520263E-06</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1396,619 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>8.925701999999999</v>
+      </c>
+      <c r="H16">
+        <v>26.777106</v>
+      </c>
+      <c r="I16">
+        <v>0.1066021257320059</v>
+      </c>
+      <c r="J16">
+        <v>0.1066585841684857</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>79.77230433333334</v>
+      </c>
+      <c r="N16">
+        <v>239.316913</v>
+      </c>
+      <c r="O16">
+        <v>0.6221039803313305</v>
+      </c>
+      <c r="P16">
+        <v>0.6226295355024366</v>
+      </c>
+      <c r="Q16">
+        <v>712.023816332642</v>
+      </c>
+      <c r="R16">
+        <v>6408.214346993778</v>
+      </c>
+      <c r="S16">
+        <v>0.0663176067296618</v>
+      </c>
+      <c r="T16">
+        <v>0.06640878471817177</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>8.925701999999999</v>
+      </c>
+      <c r="H17">
+        <v>26.777106</v>
+      </c>
+      <c r="I17">
+        <v>0.1066021257320059</v>
+      </c>
+      <c r="J17">
+        <v>0.1066585841684857</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.5</v>
+      </c>
+      <c r="M17">
+        <v>0.150414</v>
+      </c>
+      <c r="N17">
+        <v>0.300828</v>
+      </c>
+      <c r="O17">
+        <v>0.001173002947320611</v>
+      </c>
+      <c r="P17">
+        <v>0.0007826626023131387</v>
+      </c>
+      <c r="Q17">
+        <v>1.342550540628</v>
+      </c>
+      <c r="R17">
+        <v>8.055303243768</v>
+      </c>
+      <c r="S17">
+        <v>0.0001250446076742852</v>
+      </c>
+      <c r="T17">
+        <v>8.347768504434193E-05</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>8.925701999999999</v>
+      </c>
+      <c r="H18">
+        <v>26.777106</v>
+      </c>
+      <c r="I18">
+        <v>0.1066021257320059</v>
+      </c>
+      <c r="J18">
+        <v>0.1066585841684857</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>11.020322</v>
+      </c>
+      <c r="N18">
+        <v>33.060966</v>
+      </c>
+      <c r="O18">
+        <v>0.08594193483600045</v>
+      </c>
+      <c r="P18">
+        <v>0.08601453882134043</v>
+      </c>
+      <c r="Q18">
+        <v>98.36411011604399</v>
+      </c>
+      <c r="R18">
+        <v>885.276991044396</v>
+      </c>
+      <c r="S18">
+        <v>0.009161592943039176</v>
+      </c>
+      <c r="T18">
+        <v>0.009174188928589417</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>8.925701999999999</v>
+      </c>
+      <c r="H19">
+        <v>26.777106</v>
+      </c>
+      <c r="I19">
+        <v>0.1066021257320059</v>
+      </c>
+      <c r="J19">
+        <v>0.1066585841684857</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>37.10114233333334</v>
+      </c>
+      <c r="N19">
+        <v>111.303427</v>
+      </c>
+      <c r="O19">
+        <v>0.2893331026763565</v>
+      </c>
+      <c r="P19">
+        <v>0.2895775320854125</v>
+      </c>
+      <c r="Q19">
+        <v>331.153740326918</v>
+      </c>
+      <c r="R19">
+        <v>2980.383662942262</v>
+      </c>
+      <c r="S19">
+        <v>0.03084352378993633</v>
+      </c>
+      <c r="T19">
+        <v>0.03088592957923433</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>31.96682866666667</v>
+      </c>
+      <c r="H20">
+        <v>95.900486</v>
+      </c>
+      <c r="I20">
+        <v>0.3817886692584505</v>
+      </c>
+      <c r="J20">
+        <v>0.3819908715239683</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.5</v>
+      </c>
+      <c r="M20">
+        <v>0.1742985</v>
+      </c>
+      <c r="N20">
+        <v>0.348597</v>
+      </c>
+      <c r="O20">
+        <v>0.001359266120265145</v>
+      </c>
+      <c r="P20">
+        <v>0.0009069429547068531</v>
+      </c>
+      <c r="Q20">
+        <v>5.571770286357</v>
+      </c>
+      <c r="R20">
+        <v>33.430621718142</v>
+      </c>
+      <c r="S20">
+        <v>0.0005189524032241267</v>
+      </c>
+      <c r="T20">
+        <v>0.0003464439296909937</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>31.96682866666667</v>
+      </c>
+      <c r="H21">
+        <v>95.900486</v>
+      </c>
+      <c r="I21">
+        <v>0.3817886692584505</v>
+      </c>
+      <c r="J21">
+        <v>0.3819908715239683</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M21">
+        <v>0.01137566666666667</v>
+      </c>
+      <c r="N21">
+        <v>0.034127</v>
+      </c>
+      <c r="O21">
+        <v>8.871308872669319E-05</v>
+      </c>
+      <c r="P21">
+        <v>8.878803379053972E-05</v>
+      </c>
+      <c r="Q21">
+        <v>0.3636439873024445</v>
+      </c>
+      <c r="R21">
+        <v>3.272795885722</v>
+      </c>
+      <c r="S21">
+        <v>3.386965209077104E-05</v>
+      </c>
+      <c r="T21">
+        <v>3.391621840854782E-05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>31.96682866666667</v>
+      </c>
+      <c r="H22">
+        <v>95.900486</v>
+      </c>
+      <c r="I22">
+        <v>0.3817886692584505</v>
+      </c>
+      <c r="J22">
+        <v>0.3819908715239683</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>79.77230433333334</v>
+      </c>
+      <c r="N22">
+        <v>239.316913</v>
+      </c>
+      <c r="O22">
+        <v>0.6221039803313305</v>
+      </c>
+      <c r="P22">
+        <v>0.6226295355024366</v>
+      </c>
+      <c r="Q22">
+        <v>2550.067584968858</v>
+      </c>
+      <c r="R22">
+        <v>22950.60826471972</v>
+      </c>
+      <c r="S22">
+        <v>0.237512250791084</v>
+      </c>
+      <c r="T22">
+        <v>0.2378387989031393</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>31.96682866666667</v>
+      </c>
+      <c r="H23">
+        <v>95.900486</v>
+      </c>
+      <c r="I23">
+        <v>0.3817886692584505</v>
+      </c>
+      <c r="J23">
+        <v>0.3819908715239683</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>0.5</v>
+      </c>
+      <c r="M23">
+        <v>0.150414</v>
+      </c>
+      <c r="N23">
+        <v>0.300828</v>
+      </c>
+      <c r="O23">
+        <v>0.001173002947320611</v>
+      </c>
+      <c r="P23">
+        <v>0.0007826626023131387</v>
+      </c>
+      <c r="Q23">
+        <v>4.808258567068</v>
+      </c>
+      <c r="R23">
+        <v>28.849551402408</v>
+      </c>
+      <c r="S23">
+        <v>0.0004478392342937763</v>
+      </c>
+      <c r="T23">
+        <v>0.0002989699695668129</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
         <v>22</v>
       </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>50.60572933333333</v>
-      </c>
-      <c r="H16">
-        <v>151.817188</v>
-      </c>
-      <c r="I16">
-        <v>0.6299988405266995</v>
-      </c>
-      <c r="J16">
-        <v>0.6299988405266996</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>59.61647133333334</v>
-      </c>
-      <c r="N16">
-        <v>178.849414</v>
-      </c>
-      <c r="O16">
-        <v>0.546902071703026</v>
-      </c>
-      <c r="P16">
-        <v>0.5474385827988417</v>
-      </c>
-      <c r="Q16">
-        <v>3016.935012103093</v>
-      </c>
-      <c r="R16">
-        <v>27152.41510892783</v>
-      </c>
-      <c r="S16">
-        <v>0.3445476710545562</v>
-      </c>
-      <c r="T16">
-        <v>0.34488567242285</v>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>31.96682866666667</v>
+      </c>
+      <c r="H24">
+        <v>95.900486</v>
+      </c>
+      <c r="I24">
+        <v>0.3817886692584505</v>
+      </c>
+      <c r="J24">
+        <v>0.3819908715239683</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>11.020322</v>
+      </c>
+      <c r="N24">
+        <v>33.060966</v>
+      </c>
+      <c r="O24">
+        <v>0.08594193483600045</v>
+      </c>
+      <c r="P24">
+        <v>0.08601453882134043</v>
+      </c>
+      <c r="Q24">
+        <v>352.2847452254974</v>
+      </c>
+      <c r="R24">
+        <v>3170.562707029476</v>
+      </c>
+      <c r="S24">
+        <v>0.03281165693453308</v>
+      </c>
+      <c r="T24">
+        <v>0.03285676864809604</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>31.96682866666667</v>
+      </c>
+      <c r="H25">
+        <v>95.900486</v>
+      </c>
+      <c r="I25">
+        <v>0.3817886692584505</v>
+      </c>
+      <c r="J25">
+        <v>0.3819908715239683</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>37.10114233333334</v>
+      </c>
+      <c r="N25">
+        <v>111.303427</v>
+      </c>
+      <c r="O25">
+        <v>0.2893331026763565</v>
+      </c>
+      <c r="P25">
+        <v>0.2895775320854125</v>
+      </c>
+      <c r="Q25">
+        <v>1186.00586030728</v>
+      </c>
+      <c r="R25">
+        <v>10674.05274276552</v>
+      </c>
+      <c r="S25">
+        <v>0.1104641002432248</v>
+      </c>
+      <c r="T25">
+        <v>0.1106159738550666</v>
       </c>
     </row>
   </sheetData>
